--- a/data.xlsx
+++ b/data.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,6 +483,49 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>01/12/2023</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>01/12/2023</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data.xlsx
+++ b/data.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +489,54 @@
           <t>01/12/2023</t>
         </is>
       </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>אדום</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4545</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>22.01</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>9.5</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2.8-2.9</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>45C</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>32%</t>
         </is>
       </c>
     </row>
@@ -506,25 +546,114 @@
           <t>01/12/2023</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>אדום</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4545</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>22.01</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>9.5</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2.8-2.9</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>44C</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr"/>
+          <t>30%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>01/12/2023</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>אדום</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4545</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>22.01</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>9.2</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2.8-2.9</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>48C</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>32%</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -653,7 +653,68 @@
           <t>32%</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>02/12/2023</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>צהוב</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>11C</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>11%</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
